--- a/examples/advanced_01/reporting engine input/ObservedData/Hardin_88_PO_200mg_BID_day1_Itra.xlsx
+++ b/examples/advanced_01/reporting engine input/ObservedData/Hardin_88_PO_200mg_BID_day1_Itra.xlsx
@@ -19,10 +19,10 @@
     <t>time  [h]</t>
   </si>
   <si>
-    <t>conc S.D. [mg/l]</t>
+    <t>conc  [mg/l]</t>
   </si>
   <si>
-    <t>conc  [mg/l]</t>
+    <t>conc S.D. [mg/l]</t>
   </si>
 </sst>
 </file>
@@ -142,10 +142,10 @@
         <v>12.5</v>
       </c>
       <c r="B2" s="15">
+        <v>0.19300000369548798</v>
+      </c>
+      <c r="C2" s="15">
         <v>0.16300000250339508</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0.19300000369548798</v>
       </c>
     </row>
     <row r="3">
@@ -153,10 +153,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="15">
+        <v>0.27499997615814209</v>
+      </c>
+      <c r="C3" s="15">
         <v>0.15600000321865082</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0.27499997615814209</v>
       </c>
     </row>
     <row r="4">
@@ -164,10 +164,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="15">
+        <v>0.38799998164176941</v>
+      </c>
+      <c r="C4" s="15">
         <v>0.14900000393390656</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0.38799998164176941</v>
       </c>
     </row>
     <row r="5">
@@ -175,10 +175,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="15">
+        <v>0.50800001621246338</v>
+      </c>
+      <c r="C5" s="15">
         <v>0.18900001049041748</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0.50800001621246338</v>
       </c>
     </row>
     <row r="6">
@@ -186,10 +186,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="15">
+        <v>0.503000020980835</v>
+      </c>
+      <c r="C6" s="15">
         <v>0.20000000298023224</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0.503000020980835</v>
       </c>
     </row>
     <row r="7">
@@ -197,10 +197,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="15">
+        <v>0.29600000381469727</v>
+      </c>
+      <c r="C7" s="15">
         <v>0.074500001966953278</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.29600000381469727</v>
       </c>
     </row>
     <row r="8">
@@ -208,10 +208,10 @@
         <v>20</v>
       </c>
       <c r="B8" s="15">
+        <v>0.3059999942779541</v>
+      </c>
+      <c r="C8" s="15">
         <v>0.096299991011619568</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.3059999942779541</v>
       </c>
     </row>
     <row r="9">
@@ -219,10 +219,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="15">
+        <v>0.19499999284744263</v>
+      </c>
+      <c r="C9" s="15">
         <v>0.067999996244907379</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.19499999284744263</v>
       </c>
     </row>
     <row r="10">
@@ -230,10 +230,10 @@
         <v>28</v>
       </c>
       <c r="B10" s="15">
+        <v>0.15999999642372131</v>
+      </c>
+      <c r="C10" s="15">
         <v>0.065600000321865082</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0.15999999642372131</v>
       </c>
     </row>
     <row r="11">
@@ -241,10 +241,10 @@
         <v>36</v>
       </c>
       <c r="B11" s="15">
+        <v>0.13000001013278961</v>
+      </c>
+      <c r="C11" s="15">
         <v>0.060300003737211227</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0.13000001013278961</v>
       </c>
     </row>
     <row r="12">
@@ -252,10 +252,10 @@
         <v>60</v>
       </c>
       <c r="B12" s="15">
+        <v>0.067899994552135468</v>
+      </c>
+      <c r="C12" s="15">
         <v>0.044299997389316559</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0.067899994552135468</v>
       </c>
     </row>
     <row r="13">
@@ -263,10 +263,10 @@
         <v>84</v>
       </c>
       <c r="B13" s="15">
+        <v>0.036900002509355545</v>
+      </c>
+      <c r="C13" s="15">
         <v>0.032099999487400055</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0.036900002509355545</v>
       </c>
     </row>
   </sheetData>
